--- a/biology/Zoologie/Indotestudo_forstenii/Indotestudo_forstenii.xlsx
+++ b/biology/Zoologie/Indotestudo_forstenii/Indotestudo_forstenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indotestudo forstenii est une espèce de tortues de la famille des Testudinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indotestudo forstenii est une espèce de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Indonésie. Elle se rencontre à Sulawesi et à Halmahera aux Moluques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Indonésie. Elle se rencontre à Sulawesi et à Halmahera aux Moluques.
 Sa présence est incertaine à Gebe.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eltio Alegondas Forsten (1811–1843)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Eltio Alegondas Forsten (1811–1843).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schlegel et Müller, 1845 : Over de Schildpadden van den Indischen Archipel, beschrijving einer nieuwe soort van Sumatra. Verhandelingen over de Natuurlijke Geschiendenis der Nederlandsche Overzeesche Bezittingen, 1839–44. Part 3. Zoologie, Schildpadden. Leiden, Luchtmans and van der Hoek, p. 29–36.</t>
         </is>
